--- a/KHC.xlsx
+++ b/KHC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A5AC4F-4AA0-4199-A2B0-736686C18D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1489FEF9-7F5D-4B94-B627-DE2E19B4DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{714CC6F2-2362-4E3A-9631-EA318498D272}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Kraft Heinz</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>Pudliszki, maxwell house, grey poupon, master, honig, plasmin, Quero</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>29.41</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -613,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>1209.174894</v>
+        <v>1183.542101</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -628,7 +640,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H3*H2</f>
-        <v>35561.833632540001</v>
+        <v>31624.244938719999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -639,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>1284</v>
+        <v>2113</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,11 +662,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>19383+695+13</f>
-        <v>20091</v>
+        <f>678+20925</f>
+        <v>21603</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,7 +675,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>54368.833632540001</v>
+        <v>51114.244938720003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,10 +706,10 @@
   <dimension ref="A1:BB450"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,6 +747,18 @@
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -1017,13 +1041,17 @@
         <v>6570</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>6411</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6">
         <v>6383</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>5999</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -1078,13 +1106,17 @@
         <v>4335</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>4168</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
         <v>4197</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>3935</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1151,7 +1183,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2243</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="0"/>
@@ -1162,10 +1194,13 @@
         <v>2186</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17" si="1">+J15-J16</f>
+        <f t="shared" ref="J17:K17" si="1">+J15-J16</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1220,13 +1255,17 @@
         <v>920</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>941</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
         <v>859</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>868</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1281,13 +1320,17 @@
         <v>510</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
         <v>707</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1342,13 +1385,17 @@
         <v>152</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
         <v>721</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1415,7 +1462,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
@@ -1426,10 +1473,13 @@
         <v>-101</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" ref="J21" si="3">+J17-SUM(J18:J20)</f>
+        <f t="shared" ref="J21:K21" si="3">+J17-SUM(J18:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <f t="shared" si="3"/>
+        <v>1196</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1484,13 +1534,17 @@
         <v>228</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>226</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
         <v>230</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>229</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1545,13 +1599,17 @@
         <v>35</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>-47</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
         <v>48</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>51</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1617,8 +1675,8 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>+G21-G22+G23</f>
+        <v>1029</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
@@ -1629,10 +1687,13 @@
         <v>-283</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" ref="J24" si="5">+J21-J22+J23</f>
+        <f t="shared" ref="J24:K24" si="5">+J21-J22+J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <f t="shared" si="5"/>
+        <v>1018</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1687,13 +1748,17 @@
         <v>206</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3">
+        <v>225</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
         <v>7</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>304</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1760,7 +1825,7 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
@@ -1771,10 +1836,13 @@
         <v>-290</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" ref="J26" si="7">+J24-J25</f>
+        <f t="shared" ref="J26:K26" si="7">+J24-J25</f>
         <v>0</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <f t="shared" si="7"/>
+        <v>714</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1829,13 +1897,17 @@
         <v>-8</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <v>2</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1902,7 +1974,7 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="8"/>
@@ -1913,10 +1985,13 @@
         <v>-290</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" ref="J28" si="9">+J26-J27</f>
+        <f t="shared" ref="J28:K28" si="9">+J26-J27</f>
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <f t="shared" si="9"/>
+        <v>712</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2032,7 +2107,7 @@
         <v>0.21318144833197722</v>
       </c>
       <c r="F30" s="2" t="e">
-        <f t="shared" ref="F30:J30" si="11">+F28/F31</f>
+        <f t="shared" ref="F30:K30" si="11">+F28/F31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="2" t="e">
@@ -2051,7 +2126,10 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>

--- a/KHC.xlsx
+++ b/KHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1489FEF9-7F5D-4B94-B627-DE2E19B4DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E9ED74-6A43-48C3-8379-775C4A75BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{714CC6F2-2362-4E3A-9631-EA318498D272}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{714CC6F2-2362-4E3A-9631-EA318498D272}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +211,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -225,6 +223,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,16 +260,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,46 +609,47 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>26.72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>1183.542101</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -643,34 +657,34 @@
         <v>31624.244938719999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>2113</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
         <f>678+20925</f>
         <v>21603</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -678,18 +692,18 @@
         <v>51114.244938720003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -698,6 +712,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{D89B44A4-9254-4EA4-B439-5F1D21225ACC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -709,60 +724,61 @@
       <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="3"/>
@@ -780,8 +796,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="3"/>
@@ -799,8 +815,8 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="3"/>
@@ -818,8 +834,8 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3"/>
@@ -837,8 +853,8 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="3"/>
@@ -856,8 +872,8 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3"/>
@@ -875,8 +891,8 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3"/>
@@ -894,8 +910,8 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="3"/>
@@ -913,8 +929,8 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="3"/>
@@ -932,8 +948,8 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3"/>
@@ -951,8 +967,8 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="3"/>
@@ -970,8 +986,8 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="3"/>
@@ -1031,7 +1047,7 @@
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1096,8 +1112,8 @@
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3"/>
@@ -1161,8 +1177,8 @@
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="3">
@@ -1245,8 +1261,8 @@
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="3"/>
@@ -1310,8 +1326,8 @@
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="3"/>
@@ -1375,8 +1391,8 @@
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="3"/>
@@ -1440,8 +1456,8 @@
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="3">
@@ -1524,8 +1540,8 @@
       <c r="BA21" s="3"/>
       <c r="BB21" s="3"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="3"/>
@@ -1589,8 +1605,8 @@
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3"/>
@@ -1654,8 +1670,8 @@
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="3">
@@ -1738,8 +1754,8 @@
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="3"/>
@@ -1803,8 +1819,8 @@
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3">
@@ -1887,8 +1903,8 @@
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="3"/>
@@ -1952,8 +1968,8 @@
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="3">
@@ -2036,7 +2052,7 @@
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2090,43 +2106,43 @@
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2" t="e">
+      <c r="C30" s="7" t="e">
         <f t="shared" ref="C30:D30" si="10">+C28/C31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="2" t="e">
+      <c r="D30" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="7">
         <f>+E28/E31</f>
         <v>0.21318144833197722</v>
       </c>
-      <c r="F30" s="2" t="e">
+      <c r="F30" s="7" t="e">
         <f t="shared" ref="F30:K30" si="11">+F28/F31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="2" t="e">
+      <c r="G30" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="2" t="e">
+      <c r="H30" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
         <f t="shared" si="11"/>
         <v>-0.23966942148760331</v>
       </c>
-      <c r="J30" s="2" t="e">
+      <c r="J30" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="2" t="e">
+      <c r="K30" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -2174,8 +2190,8 @@
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3"/>
@@ -2235,7 +2251,7 @@
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2289,7 +2305,7 @@
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
     </row>
-    <row r="33" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2343,7 +2359,7 @@
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
     </row>
-    <row r="34" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2397,7 +2413,7 @@
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
     </row>
-    <row r="35" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2451,7 +2467,7 @@
       <c r="BA35" s="3"/>
       <c r="BB35" s="3"/>
     </row>
-    <row r="36" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2505,7 +2521,7 @@
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
     </row>
-    <row r="37" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2559,7 +2575,7 @@
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
     </row>
-    <row r="38" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2613,7 +2629,7 @@
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
     </row>
-    <row r="39" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2667,7 +2683,7 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
     </row>
-    <row r="40" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2721,7 +2737,7 @@
       <c r="BA40" s="3"/>
       <c r="BB40" s="3"/>
     </row>
-    <row r="41" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2775,7 +2791,7 @@
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
     </row>
-    <row r="42" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2829,7 +2845,7 @@
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
     </row>
-    <row r="43" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2883,7 +2899,7 @@
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
     </row>
-    <row r="44" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2937,7 +2953,7 @@
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
     </row>
-    <row r="45" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2991,7 +3007,7 @@
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
     </row>
-    <row r="46" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -3045,7 +3061,7 @@
       <c r="BA46" s="3"/>
       <c r="BB46" s="3"/>
     </row>
-    <row r="47" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3099,7 +3115,7 @@
       <c r="BA47" s="3"/>
       <c r="BB47" s="3"/>
     </row>
-    <row r="48" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3153,7 +3169,7 @@
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
     </row>
-    <row r="49" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3207,7 +3223,7 @@
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
     </row>
-    <row r="50" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3261,7 +3277,7 @@
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
     </row>
-    <row r="51" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3315,7 +3331,7 @@
       <c r="BA51" s="3"/>
       <c r="BB51" s="3"/>
     </row>
-    <row r="52" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3369,7 +3385,7 @@
       <c r="BA52" s="3"/>
       <c r="BB52" s="3"/>
     </row>
-    <row r="53" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3423,7 +3439,7 @@
       <c r="BA53" s="3"/>
       <c r="BB53" s="3"/>
     </row>
-    <row r="54" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3477,7 +3493,7 @@
       <c r="BA54" s="3"/>
       <c r="BB54" s="3"/>
     </row>
-    <row r="55" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3531,7 +3547,7 @@
       <c r="BA55" s="3"/>
       <c r="BB55" s="3"/>
     </row>
-    <row r="56" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3585,7 +3601,7 @@
       <c r="BA56" s="3"/>
       <c r="BB56" s="3"/>
     </row>
-    <row r="57" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3639,7 +3655,7 @@
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
     </row>
-    <row r="58" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3693,7 +3709,7 @@
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
     </row>
-    <row r="59" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3747,7 +3763,7 @@
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
     </row>
-    <row r="60" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3801,7 +3817,7 @@
       <c r="BA60" s="3"/>
       <c r="BB60" s="3"/>
     </row>
-    <row r="61" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3855,7 +3871,7 @@
       <c r="BA61" s="3"/>
       <c r="BB61" s="3"/>
     </row>
-    <row r="62" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3909,7 +3925,7 @@
       <c r="BA62" s="3"/>
       <c r="BB62" s="3"/>
     </row>
-    <row r="63" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3963,7 +3979,7 @@
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
     </row>
-    <row r="64" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -4017,7 +4033,7 @@
       <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
     </row>
-    <row r="65" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -4071,7 +4087,7 @@
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
     </row>
-    <row r="66" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4125,7 +4141,7 @@
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
     </row>
-    <row r="67" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4179,7 +4195,7 @@
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
     </row>
-    <row r="68" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4233,7 +4249,7 @@
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
     </row>
-    <row r="69" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4287,7 +4303,7 @@
       <c r="BA69" s="3"/>
       <c r="BB69" s="3"/>
     </row>
-    <row r="70" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4341,7 +4357,7 @@
       <c r="BA70" s="3"/>
       <c r="BB70" s="3"/>
     </row>
-    <row r="71" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4395,7 +4411,7 @@
       <c r="BA71" s="3"/>
       <c r="BB71" s="3"/>
     </row>
-    <row r="72" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4449,7 +4465,7 @@
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
     </row>
-    <row r="73" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4503,7 +4519,7 @@
       <c r="BA73" s="3"/>
       <c r="BB73" s="3"/>
     </row>
-    <row r="74" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4557,7 +4573,7 @@
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
     </row>
-    <row r="75" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4611,7 +4627,7 @@
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
     </row>
-    <row r="76" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4665,7 +4681,7 @@
       <c r="BA76" s="3"/>
       <c r="BB76" s="3"/>
     </row>
-    <row r="77" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4719,7 +4735,7 @@
       <c r="BA77" s="3"/>
       <c r="BB77" s="3"/>
     </row>
-    <row r="78" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4773,7 +4789,7 @@
       <c r="BA78" s="3"/>
       <c r="BB78" s="3"/>
     </row>
-    <row r="79" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4827,7 +4843,7 @@
       <c r="BA79" s="3"/>
       <c r="BB79" s="3"/>
     </row>
-    <row r="80" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4881,7 +4897,7 @@
       <c r="BA80" s="3"/>
       <c r="BB80" s="3"/>
     </row>
-    <row r="81" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4935,7 +4951,7 @@
       <c r="BA81" s="3"/>
       <c r="BB81" s="3"/>
     </row>
-    <row r="82" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4989,7 +5005,7 @@
       <c r="BA82" s="3"/>
       <c r="BB82" s="3"/>
     </row>
-    <row r="83" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5043,7 +5059,7 @@
       <c r="BA83" s="3"/>
       <c r="BB83" s="3"/>
     </row>
-    <row r="84" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5097,7 +5113,7 @@
       <c r="BA84" s="3"/>
       <c r="BB84" s="3"/>
     </row>
-    <row r="85" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5151,7 +5167,7 @@
       <c r="BA85" s="3"/>
       <c r="BB85" s="3"/>
     </row>
-    <row r="86" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5205,7 +5221,7 @@
       <c r="BA86" s="3"/>
       <c r="BB86" s="3"/>
     </row>
-    <row r="87" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5259,7 +5275,7 @@
       <c r="BA87" s="3"/>
       <c r="BB87" s="3"/>
     </row>
-    <row r="88" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5313,7 +5329,7 @@
       <c r="BA88" s="3"/>
       <c r="BB88" s="3"/>
     </row>
-    <row r="89" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5367,7 +5383,7 @@
       <c r="BA89" s="3"/>
       <c r="BB89" s="3"/>
     </row>
-    <row r="90" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5421,7 +5437,7 @@
       <c r="BA90" s="3"/>
       <c r="BB90" s="3"/>
     </row>
-    <row r="91" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5475,7 +5491,7 @@
       <c r="BA91" s="3"/>
       <c r="BB91" s="3"/>
     </row>
-    <row r="92" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5529,7 +5545,7 @@
       <c r="BA92" s="3"/>
       <c r="BB92" s="3"/>
     </row>
-    <row r="93" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -5583,7 +5599,7 @@
       <c r="BA93" s="3"/>
       <c r="BB93" s="3"/>
     </row>
-    <row r="94" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -5637,7 +5653,7 @@
       <c r="BA94" s="3"/>
       <c r="BB94" s="3"/>
     </row>
-    <row r="95" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -5691,7 +5707,7 @@
       <c r="BA95" s="3"/>
       <c r="BB95" s="3"/>
     </row>
-    <row r="96" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5745,7 +5761,7 @@
       <c r="BA96" s="3"/>
       <c r="BB96" s="3"/>
     </row>
-    <row r="97" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5799,7 +5815,7 @@
       <c r="BA97" s="3"/>
       <c r="BB97" s="3"/>
     </row>
-    <row r="98" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5853,7 +5869,7 @@
       <c r="BA98" s="3"/>
       <c r="BB98" s="3"/>
     </row>
-    <row r="99" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5907,7 +5923,7 @@
       <c r="BA99" s="3"/>
       <c r="BB99" s="3"/>
     </row>
-    <row r="100" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5961,7 +5977,7 @@
       <c r="BA100" s="3"/>
       <c r="BB100" s="3"/>
     </row>
-    <row r="101" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6015,7 +6031,7 @@
       <c r="BA101" s="3"/>
       <c r="BB101" s="3"/>
     </row>
-    <row r="102" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6069,7 +6085,7 @@
       <c r="BA102" s="3"/>
       <c r="BB102" s="3"/>
     </row>
-    <row r="103" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6123,7 +6139,7 @@
       <c r="BA103" s="3"/>
       <c r="BB103" s="3"/>
     </row>
-    <row r="104" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6177,7 +6193,7 @@
       <c r="BA104" s="3"/>
       <c r="BB104" s="3"/>
     </row>
-    <row r="105" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -6231,7 +6247,7 @@
       <c r="BA105" s="3"/>
       <c r="BB105" s="3"/>
     </row>
-    <row r="106" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6285,7 +6301,7 @@
       <c r="BA106" s="3"/>
       <c r="BB106" s="3"/>
     </row>
-    <row r="107" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -6339,7 +6355,7 @@
       <c r="BA107" s="3"/>
       <c r="BB107" s="3"/>
     </row>
-    <row r="108" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -6393,7 +6409,7 @@
       <c r="BA108" s="3"/>
       <c r="BB108" s="3"/>
     </row>
-    <row r="109" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -6447,7 +6463,7 @@
       <c r="BA109" s="3"/>
       <c r="BB109" s="3"/>
     </row>
-    <row r="110" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6501,7 +6517,7 @@
       <c r="BA110" s="3"/>
       <c r="BB110" s="3"/>
     </row>
-    <row r="111" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6555,7 +6571,7 @@
       <c r="BA111" s="3"/>
       <c r="BB111" s="3"/>
     </row>
-    <row r="112" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6609,7 +6625,7 @@
       <c r="BA112" s="3"/>
       <c r="BB112" s="3"/>
     </row>
-    <row r="113" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6663,7 +6679,7 @@
       <c r="BA113" s="3"/>
       <c r="BB113" s="3"/>
     </row>
-    <row r="114" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6717,7 +6733,7 @@
       <c r="BA114" s="3"/>
       <c r="BB114" s="3"/>
     </row>
-    <row r="115" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6771,7 +6787,7 @@
       <c r="BA115" s="3"/>
       <c r="BB115" s="3"/>
     </row>
-    <row r="116" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6825,7 +6841,7 @@
       <c r="BA116" s="3"/>
       <c r="BB116" s="3"/>
     </row>
-    <row r="117" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6879,7 +6895,7 @@
       <c r="BA117" s="3"/>
       <c r="BB117" s="3"/>
     </row>
-    <row r="118" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6933,7 +6949,7 @@
       <c r="BA118" s="3"/>
       <c r="BB118" s="3"/>
     </row>
-    <row r="119" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6987,7 +7003,7 @@
       <c r="BA119" s="3"/>
       <c r="BB119" s="3"/>
     </row>
-    <row r="120" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7041,7 +7057,7 @@
       <c r="BA120" s="3"/>
       <c r="BB120" s="3"/>
     </row>
-    <row r="121" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7095,7 +7111,7 @@
       <c r="BA121" s="3"/>
       <c r="BB121" s="3"/>
     </row>
-    <row r="122" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -7149,7 +7165,7 @@
       <c r="BA122" s="3"/>
       <c r="BB122" s="3"/>
     </row>
-    <row r="123" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -7203,7 +7219,7 @@
       <c r="BA123" s="3"/>
       <c r="BB123" s="3"/>
     </row>
-    <row r="124" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -7257,7 +7273,7 @@
       <c r="BA124" s="3"/>
       <c r="BB124" s="3"/>
     </row>
-    <row r="125" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -7311,7 +7327,7 @@
       <c r="BA125" s="3"/>
       <c r="BB125" s="3"/>
     </row>
-    <row r="126" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -7365,7 +7381,7 @@
       <c r="BA126" s="3"/>
       <c r="BB126" s="3"/>
     </row>
-    <row r="127" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -7419,7 +7435,7 @@
       <c r="BA127" s="3"/>
       <c r="BB127" s="3"/>
     </row>
-    <row r="128" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -7473,7 +7489,7 @@
       <c r="BA128" s="3"/>
       <c r="BB128" s="3"/>
     </row>
-    <row r="129" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -7527,7 +7543,7 @@
       <c r="BA129" s="3"/>
       <c r="BB129" s="3"/>
     </row>
-    <row r="130" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -7581,7 +7597,7 @@
       <c r="BA130" s="3"/>
       <c r="BB130" s="3"/>
     </row>
-    <row r="131" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -7635,7 +7651,7 @@
       <c r="BA131" s="3"/>
       <c r="BB131" s="3"/>
     </row>
-    <row r="132" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -7689,7 +7705,7 @@
       <c r="BA132" s="3"/>
       <c r="BB132" s="3"/>
     </row>
-    <row r="133" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7743,7 +7759,7 @@
       <c r="BA133" s="3"/>
       <c r="BB133" s="3"/>
     </row>
-    <row r="134" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7797,7 +7813,7 @@
       <c r="BA134" s="3"/>
       <c r="BB134" s="3"/>
     </row>
-    <row r="135" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -7851,7 +7867,7 @@
       <c r="BA135" s="3"/>
       <c r="BB135" s="3"/>
     </row>
-    <row r="136" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -7905,7 +7921,7 @@
       <c r="BA136" s="3"/>
       <c r="BB136" s="3"/>
     </row>
-    <row r="137" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -7959,7 +7975,7 @@
       <c r="BA137" s="3"/>
       <c r="BB137" s="3"/>
     </row>
-    <row r="138" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8013,7 +8029,7 @@
       <c r="BA138" s="3"/>
       <c r="BB138" s="3"/>
     </row>
-    <row r="139" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -8067,7 +8083,7 @@
       <c r="BA139" s="3"/>
       <c r="BB139" s="3"/>
     </row>
-    <row r="140" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -8121,7 +8137,7 @@
       <c r="BA140" s="3"/>
       <c r="BB140" s="3"/>
     </row>
-    <row r="141" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8175,7 +8191,7 @@
       <c r="BA141" s="3"/>
       <c r="BB141" s="3"/>
     </row>
-    <row r="142" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -8229,7 +8245,7 @@
       <c r="BA142" s="3"/>
       <c r="BB142" s="3"/>
     </row>
-    <row r="143" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -8283,7 +8299,7 @@
       <c r="BA143" s="3"/>
       <c r="BB143" s="3"/>
     </row>
-    <row r="144" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -8337,7 +8353,7 @@
       <c r="BA144" s="3"/>
       <c r="BB144" s="3"/>
     </row>
-    <row r="145" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -8391,7 +8407,7 @@
       <c r="BA145" s="3"/>
       <c r="BB145" s="3"/>
     </row>
-    <row r="146" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -8445,7 +8461,7 @@
       <c r="BA146" s="3"/>
       <c r="BB146" s="3"/>
     </row>
-    <row r="147" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -8499,7 +8515,7 @@
       <c r="BA147" s="3"/>
       <c r="BB147" s="3"/>
     </row>
-    <row r="148" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -8553,7 +8569,7 @@
       <c r="BA148" s="3"/>
       <c r="BB148" s="3"/>
     </row>
-    <row r="149" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -8607,7 +8623,7 @@
       <c r="BA149" s="3"/>
       <c r="BB149" s="3"/>
     </row>
-    <row r="150" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -8661,7 +8677,7 @@
       <c r="BA150" s="3"/>
       <c r="BB150" s="3"/>
     </row>
-    <row r="151" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -8715,7 +8731,7 @@
       <c r="BA151" s="3"/>
       <c r="BB151" s="3"/>
     </row>
-    <row r="152" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -8769,7 +8785,7 @@
       <c r="BA152" s="3"/>
       <c r="BB152" s="3"/>
     </row>
-    <row r="153" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -8823,7 +8839,7 @@
       <c r="BA153" s="3"/>
       <c r="BB153" s="3"/>
     </row>
-    <row r="154" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -8877,7 +8893,7 @@
       <c r="BA154" s="3"/>
       <c r="BB154" s="3"/>
     </row>
-    <row r="155" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -8931,7 +8947,7 @@
       <c r="BA155" s="3"/>
       <c r="BB155" s="3"/>
     </row>
-    <row r="156" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -8985,7 +9001,7 @@
       <c r="BA156" s="3"/>
       <c r="BB156" s="3"/>
     </row>
-    <row r="157" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -9039,7 +9055,7 @@
       <c r="BA157" s="3"/>
       <c r="BB157" s="3"/>
     </row>
-    <row r="158" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -9093,7 +9109,7 @@
       <c r="BA158" s="3"/>
       <c r="BB158" s="3"/>
     </row>
-    <row r="159" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -9147,7 +9163,7 @@
       <c r="BA159" s="3"/>
       <c r="BB159" s="3"/>
     </row>
-    <row r="160" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -9201,7 +9217,7 @@
       <c r="BA160" s="3"/>
       <c r="BB160" s="3"/>
     </row>
-    <row r="161" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -9255,7 +9271,7 @@
       <c r="BA161" s="3"/>
       <c r="BB161" s="3"/>
     </row>
-    <row r="162" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -9309,7 +9325,7 @@
       <c r="BA162" s="3"/>
       <c r="BB162" s="3"/>
     </row>
-    <row r="163" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -9363,7 +9379,7 @@
       <c r="BA163" s="3"/>
       <c r="BB163" s="3"/>
     </row>
-    <row r="164" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -9417,7 +9433,7 @@
       <c r="BA164" s="3"/>
       <c r="BB164" s="3"/>
     </row>
-    <row r="165" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -9471,7 +9487,7 @@
       <c r="BA165" s="3"/>
       <c r="BB165" s="3"/>
     </row>
-    <row r="166" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -9525,7 +9541,7 @@
       <c r="BA166" s="3"/>
       <c r="BB166" s="3"/>
     </row>
-    <row r="167" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -9579,7 +9595,7 @@
       <c r="BA167" s="3"/>
       <c r="BB167" s="3"/>
     </row>
-    <row r="168" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -9633,7 +9649,7 @@
       <c r="BA168" s="3"/>
       <c r="BB168" s="3"/>
     </row>
-    <row r="169" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -9687,7 +9703,7 @@
       <c r="BA169" s="3"/>
       <c r="BB169" s="3"/>
     </row>
-    <row r="170" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -9741,7 +9757,7 @@
       <c r="BA170" s="3"/>
       <c r="BB170" s="3"/>
     </row>
-    <row r="171" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -9795,7 +9811,7 @@
       <c r="BA171" s="3"/>
       <c r="BB171" s="3"/>
     </row>
-    <row r="172" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -9849,7 +9865,7 @@
       <c r="BA172" s="3"/>
       <c r="BB172" s="3"/>
     </row>
-    <row r="173" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -9903,7 +9919,7 @@
       <c r="BA173" s="3"/>
       <c r="BB173" s="3"/>
     </row>
-    <row r="174" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -9957,7 +9973,7 @@
       <c r="BA174" s="3"/>
       <c r="BB174" s="3"/>
     </row>
-    <row r="175" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -10011,7 +10027,7 @@
       <c r="BA175" s="3"/>
       <c r="BB175" s="3"/>
     </row>
-    <row r="176" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -10065,7 +10081,7 @@
       <c r="BA176" s="3"/>
       <c r="BB176" s="3"/>
     </row>
-    <row r="177" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -10119,7 +10135,7 @@
       <c r="BA177" s="3"/>
       <c r="BB177" s="3"/>
     </row>
-    <row r="178" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -10173,7 +10189,7 @@
       <c r="BA178" s="3"/>
       <c r="BB178" s="3"/>
     </row>
-    <row r="179" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -10227,7 +10243,7 @@
       <c r="BA179" s="3"/>
       <c r="BB179" s="3"/>
     </row>
-    <row r="180" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -10281,7 +10297,7 @@
       <c r="BA180" s="3"/>
       <c r="BB180" s="3"/>
     </row>
-    <row r="181" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -10335,7 +10351,7 @@
       <c r="BA181" s="3"/>
       <c r="BB181" s="3"/>
     </row>
-    <row r="182" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -10389,7 +10405,7 @@
       <c r="BA182" s="3"/>
       <c r="BB182" s="3"/>
     </row>
-    <row r="183" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -10443,7 +10459,7 @@
       <c r="BA183" s="3"/>
       <c r="BB183" s="3"/>
     </row>
-    <row r="184" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -10497,7 +10513,7 @@
       <c r="BA184" s="3"/>
       <c r="BB184" s="3"/>
     </row>
-    <row r="185" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -10551,7 +10567,7 @@
       <c r="BA185" s="3"/>
       <c r="BB185" s="3"/>
     </row>
-    <row r="186" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -10605,7 +10621,7 @@
       <c r="BA186" s="3"/>
       <c r="BB186" s="3"/>
     </row>
-    <row r="187" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -10659,7 +10675,7 @@
       <c r="BA187" s="3"/>
       <c r="BB187" s="3"/>
     </row>
-    <row r="188" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -10713,7 +10729,7 @@
       <c r="BA188" s="3"/>
       <c r="BB188" s="3"/>
     </row>
-    <row r="189" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -10767,7 +10783,7 @@
       <c r="BA189" s="3"/>
       <c r="BB189" s="3"/>
     </row>
-    <row r="190" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -10821,7 +10837,7 @@
       <c r="BA190" s="3"/>
       <c r="BB190" s="3"/>
     </row>
-    <row r="191" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -10875,7 +10891,7 @@
       <c r="BA191" s="3"/>
       <c r="BB191" s="3"/>
     </row>
-    <row r="192" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -10929,7 +10945,7 @@
       <c r="BA192" s="3"/>
       <c r="BB192" s="3"/>
     </row>
-    <row r="193" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -10983,7 +10999,7 @@
       <c r="BA193" s="3"/>
       <c r="BB193" s="3"/>
     </row>
-    <row r="194" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -11037,7 +11053,7 @@
       <c r="BA194" s="3"/>
       <c r="BB194" s="3"/>
     </row>
-    <row r="195" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -11091,7 +11107,7 @@
       <c r="BA195" s="3"/>
       <c r="BB195" s="3"/>
     </row>
-    <row r="196" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -11145,7 +11161,7 @@
       <c r="BA196" s="3"/>
       <c r="BB196" s="3"/>
     </row>
-    <row r="197" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -11199,7 +11215,7 @@
       <c r="BA197" s="3"/>
       <c r="BB197" s="3"/>
     </row>
-    <row r="198" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -11253,7 +11269,7 @@
       <c r="BA198" s="3"/>
       <c r="BB198" s="3"/>
     </row>
-    <row r="199" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -11307,7 +11323,7 @@
       <c r="BA199" s="3"/>
       <c r="BB199" s="3"/>
     </row>
-    <row r="200" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -11361,7 +11377,7 @@
       <c r="BA200" s="3"/>
       <c r="BB200" s="3"/>
     </row>
-    <row r="201" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -11415,7 +11431,7 @@
       <c r="BA201" s="3"/>
       <c r="BB201" s="3"/>
     </row>
-    <row r="202" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -11469,7 +11485,7 @@
       <c r="BA202" s="3"/>
       <c r="BB202" s="3"/>
     </row>
-    <row r="203" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -11523,7 +11539,7 @@
       <c r="BA203" s="3"/>
       <c r="BB203" s="3"/>
     </row>
-    <row r="204" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -11577,7 +11593,7 @@
       <c r="BA204" s="3"/>
       <c r="BB204" s="3"/>
     </row>
-    <row r="205" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -11631,7 +11647,7 @@
       <c r="BA205" s="3"/>
       <c r="BB205" s="3"/>
     </row>
-    <row r="206" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -11685,7 +11701,7 @@
       <c r="BA206" s="3"/>
       <c r="BB206" s="3"/>
     </row>
-    <row r="207" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -11739,7 +11755,7 @@
       <c r="BA207" s="3"/>
       <c r="BB207" s="3"/>
     </row>
-    <row r="208" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -11793,7 +11809,7 @@
       <c r="BA208" s="3"/>
       <c r="BB208" s="3"/>
     </row>
-    <row r="209" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -11847,7 +11863,7 @@
       <c r="BA209" s="3"/>
       <c r="BB209" s="3"/>
     </row>
-    <row r="210" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -11901,7 +11917,7 @@
       <c r="BA210" s="3"/>
       <c r="BB210" s="3"/>
     </row>
-    <row r="211" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -11955,7 +11971,7 @@
       <c r="BA211" s="3"/>
       <c r="BB211" s="3"/>
     </row>
-    <row r="212" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -12009,7 +12025,7 @@
       <c r="BA212" s="3"/>
       <c r="BB212" s="3"/>
     </row>
-    <row r="213" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -12063,7 +12079,7 @@
       <c r="BA213" s="3"/>
       <c r="BB213" s="3"/>
     </row>
-    <row r="214" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -12117,7 +12133,7 @@
       <c r="BA214" s="3"/>
       <c r="BB214" s="3"/>
     </row>
-    <row r="215" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -12171,7 +12187,7 @@
       <c r="BA215" s="3"/>
       <c r="BB215" s="3"/>
     </row>
-    <row r="216" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -12225,7 +12241,7 @@
       <c r="BA216" s="3"/>
       <c r="BB216" s="3"/>
     </row>
-    <row r="217" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -12279,7 +12295,7 @@
       <c r="BA217" s="3"/>
       <c r="BB217" s="3"/>
     </row>
-    <row r="218" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12333,7 +12349,7 @@
       <c r="BA218" s="3"/>
       <c r="BB218" s="3"/>
     </row>
-    <row r="219" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -12387,7 +12403,7 @@
       <c r="BA219" s="3"/>
       <c r="BB219" s="3"/>
     </row>
-    <row r="220" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -12441,7 +12457,7 @@
       <c r="BA220" s="3"/>
       <c r="BB220" s="3"/>
     </row>
-    <row r="221" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -12495,7 +12511,7 @@
       <c r="BA221" s="3"/>
       <c r="BB221" s="3"/>
     </row>
-    <row r="222" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -12549,7 +12565,7 @@
       <c r="BA222" s="3"/>
       <c r="BB222" s="3"/>
     </row>
-    <row r="223" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -12603,7 +12619,7 @@
       <c r="BA223" s="3"/>
       <c r="BB223" s="3"/>
     </row>
-    <row r="224" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -12657,7 +12673,7 @@
       <c r="BA224" s="3"/>
       <c r="BB224" s="3"/>
     </row>
-    <row r="225" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -12711,7 +12727,7 @@
       <c r="BA225" s="3"/>
       <c r="BB225" s="3"/>
     </row>
-    <row r="226" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -12765,7 +12781,7 @@
       <c r="BA226" s="3"/>
       <c r="BB226" s="3"/>
     </row>
-    <row r="227" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -12819,7 +12835,7 @@
       <c r="BA227" s="3"/>
       <c r="BB227" s="3"/>
     </row>
-    <row r="228" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -12873,7 +12889,7 @@
       <c r="BA228" s="3"/>
       <c r="BB228" s="3"/>
     </row>
-    <row r="229" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -12927,7 +12943,7 @@
       <c r="BA229" s="3"/>
       <c r="BB229" s="3"/>
     </row>
-    <row r="230" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -12981,7 +12997,7 @@
       <c r="BA230" s="3"/>
       <c r="BB230" s="3"/>
     </row>
-    <row r="231" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -13035,7 +13051,7 @@
       <c r="BA231" s="3"/>
       <c r="BB231" s="3"/>
     </row>
-    <row r="232" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -13089,7 +13105,7 @@
       <c r="BA232" s="3"/>
       <c r="BB232" s="3"/>
     </row>
-    <row r="233" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -13143,7 +13159,7 @@
       <c r="BA233" s="3"/>
       <c r="BB233" s="3"/>
     </row>
-    <row r="234" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -13197,7 +13213,7 @@
       <c r="BA234" s="3"/>
       <c r="BB234" s="3"/>
     </row>
-    <row r="235" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -13251,7 +13267,7 @@
       <c r="BA235" s="3"/>
       <c r="BB235" s="3"/>
     </row>
-    <row r="236" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -13305,7 +13321,7 @@
       <c r="BA236" s="3"/>
       <c r="BB236" s="3"/>
     </row>
-    <row r="237" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -13359,7 +13375,7 @@
       <c r="BA237" s="3"/>
       <c r="BB237" s="3"/>
     </row>
-    <row r="238" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -13413,7 +13429,7 @@
       <c r="BA238" s="3"/>
       <c r="BB238" s="3"/>
     </row>
-    <row r="239" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -13467,7 +13483,7 @@
       <c r="BA239" s="3"/>
       <c r="BB239" s="3"/>
     </row>
-    <row r="240" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -13521,7 +13537,7 @@
       <c r="BA240" s="3"/>
       <c r="BB240" s="3"/>
     </row>
-    <row r="241" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -13575,7 +13591,7 @@
       <c r="BA241" s="3"/>
       <c r="BB241" s="3"/>
     </row>
-    <row r="242" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -13629,7 +13645,7 @@
       <c r="BA242" s="3"/>
       <c r="BB242" s="3"/>
     </row>
-    <row r="243" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -13683,7 +13699,7 @@
       <c r="BA243" s="3"/>
       <c r="BB243" s="3"/>
     </row>
-    <row r="244" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -13737,7 +13753,7 @@
       <c r="BA244" s="3"/>
       <c r="BB244" s="3"/>
     </row>
-    <row r="245" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -13791,7 +13807,7 @@
       <c r="BA245" s="3"/>
       <c r="BB245" s="3"/>
     </row>
-    <row r="246" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -13845,7 +13861,7 @@
       <c r="BA246" s="3"/>
       <c r="BB246" s="3"/>
     </row>
-    <row r="247" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -13899,7 +13915,7 @@
       <c r="BA247" s="3"/>
       <c r="BB247" s="3"/>
     </row>
-    <row r="248" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -13953,7 +13969,7 @@
       <c r="BA248" s="3"/>
       <c r="BB248" s="3"/>
     </row>
-    <row r="249" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -14007,7 +14023,7 @@
       <c r="BA249" s="3"/>
       <c r="BB249" s="3"/>
     </row>
-    <row r="250" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -14061,7 +14077,7 @@
       <c r="BA250" s="3"/>
       <c r="BB250" s="3"/>
     </row>
-    <row r="251" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -14115,7 +14131,7 @@
       <c r="BA251" s="3"/>
       <c r="BB251" s="3"/>
     </row>
-    <row r="252" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -14169,7 +14185,7 @@
       <c r="BA252" s="3"/>
       <c r="BB252" s="3"/>
     </row>
-    <row r="253" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -14223,7 +14239,7 @@
       <c r="BA253" s="3"/>
       <c r="BB253" s="3"/>
     </row>
-    <row r="254" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -14277,7 +14293,7 @@
       <c r="BA254" s="3"/>
       <c r="BB254" s="3"/>
     </row>
-    <row r="255" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -14331,7 +14347,7 @@
       <c r="BA255" s="3"/>
       <c r="BB255" s="3"/>
     </row>
-    <row r="256" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -14385,7 +14401,7 @@
       <c r="BA256" s="3"/>
       <c r="BB256" s="3"/>
     </row>
-    <row r="257" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -14439,7 +14455,7 @@
       <c r="BA257" s="3"/>
       <c r="BB257" s="3"/>
     </row>
-    <row r="258" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -14493,7 +14509,7 @@
       <c r="BA258" s="3"/>
       <c r="BB258" s="3"/>
     </row>
-    <row r="259" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -14547,7 +14563,7 @@
       <c r="BA259" s="3"/>
       <c r="BB259" s="3"/>
     </row>
-    <row r="260" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -14601,7 +14617,7 @@
       <c r="BA260" s="3"/>
       <c r="BB260" s="3"/>
     </row>
-    <row r="261" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -14655,7 +14671,7 @@
       <c r="BA261" s="3"/>
       <c r="BB261" s="3"/>
     </row>
-    <row r="262" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -14709,7 +14725,7 @@
       <c r="BA262" s="3"/>
       <c r="BB262" s="3"/>
     </row>
-    <row r="263" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -14763,7 +14779,7 @@
       <c r="BA263" s="3"/>
       <c r="BB263" s="3"/>
     </row>
-    <row r="264" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -14817,7 +14833,7 @@
       <c r="BA264" s="3"/>
       <c r="BB264" s="3"/>
     </row>
-    <row r="265" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -14871,7 +14887,7 @@
       <c r="BA265" s="3"/>
       <c r="BB265" s="3"/>
     </row>
-    <row r="266" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -14925,7 +14941,7 @@
       <c r="BA266" s="3"/>
       <c r="BB266" s="3"/>
     </row>
-    <row r="267" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -14979,7 +14995,7 @@
       <c r="BA267" s="3"/>
       <c r="BB267" s="3"/>
     </row>
-    <row r="268" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -15033,7 +15049,7 @@
       <c r="BA268" s="3"/>
       <c r="BB268" s="3"/>
     </row>
-    <row r="269" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -15087,7 +15103,7 @@
       <c r="BA269" s="3"/>
       <c r="BB269" s="3"/>
     </row>
-    <row r="270" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -15141,7 +15157,7 @@
       <c r="BA270" s="3"/>
       <c r="BB270" s="3"/>
     </row>
-    <row r="271" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -15195,7 +15211,7 @@
       <c r="BA271" s="3"/>
       <c r="BB271" s="3"/>
     </row>
-    <row r="272" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -15249,7 +15265,7 @@
       <c r="BA272" s="3"/>
       <c r="BB272" s="3"/>
     </row>
-    <row r="273" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -15303,7 +15319,7 @@
       <c r="BA273" s="3"/>
       <c r="BB273" s="3"/>
     </row>
-    <row r="274" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -15357,7 +15373,7 @@
       <c r="BA274" s="3"/>
       <c r="BB274" s="3"/>
     </row>
-    <row r="275" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -15411,7 +15427,7 @@
       <c r="BA275" s="3"/>
       <c r="BB275" s="3"/>
     </row>
-    <row r="276" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -15465,7 +15481,7 @@
       <c r="BA276" s="3"/>
       <c r="BB276" s="3"/>
     </row>
-    <row r="277" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -15519,7 +15535,7 @@
       <c r="BA277" s="3"/>
       <c r="BB277" s="3"/>
     </row>
-    <row r="278" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -15573,7 +15589,7 @@
       <c r="BA278" s="3"/>
       <c r="BB278" s="3"/>
     </row>
-    <row r="279" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -15627,7 +15643,7 @@
       <c r="BA279" s="3"/>
       <c r="BB279" s="3"/>
     </row>
-    <row r="280" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -15681,7 +15697,7 @@
       <c r="BA280" s="3"/>
       <c r="BB280" s="3"/>
     </row>
-    <row r="281" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -15735,7 +15751,7 @@
       <c r="BA281" s="3"/>
       <c r="BB281" s="3"/>
     </row>
-    <row r="282" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -15789,7 +15805,7 @@
       <c r="BA282" s="3"/>
       <c r="BB282" s="3"/>
     </row>
-    <row r="283" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -15843,7 +15859,7 @@
       <c r="BA283" s="3"/>
       <c r="BB283" s="3"/>
     </row>
-    <row r="284" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -15897,7 +15913,7 @@
       <c r="BA284" s="3"/>
       <c r="BB284" s="3"/>
     </row>
-    <row r="285" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -15951,7 +15967,7 @@
       <c r="BA285" s="3"/>
       <c r="BB285" s="3"/>
     </row>
-    <row r="286" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -16005,7 +16021,7 @@
       <c r="BA286" s="3"/>
       <c r="BB286" s="3"/>
     </row>
-    <row r="287" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -16059,7 +16075,7 @@
       <c r="BA287" s="3"/>
       <c r="BB287" s="3"/>
     </row>
-    <row r="288" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -16113,7 +16129,7 @@
       <c r="BA288" s="3"/>
       <c r="BB288" s="3"/>
     </row>
-    <row r="289" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -16167,7 +16183,7 @@
       <c r="BA289" s="3"/>
       <c r="BB289" s="3"/>
     </row>
-    <row r="290" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -16221,7 +16237,7 @@
       <c r="BA290" s="3"/>
       <c r="BB290" s="3"/>
     </row>
-    <row r="291" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -16275,7 +16291,7 @@
       <c r="BA291" s="3"/>
       <c r="BB291" s="3"/>
     </row>
-    <row r="292" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -16329,7 +16345,7 @@
       <c r="BA292" s="3"/>
       <c r="BB292" s="3"/>
     </row>
-    <row r="293" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -16383,7 +16399,7 @@
       <c r="BA293" s="3"/>
       <c r="BB293" s="3"/>
     </row>
-    <row r="294" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -16437,7 +16453,7 @@
       <c r="BA294" s="3"/>
       <c r="BB294" s="3"/>
     </row>
-    <row r="295" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -16491,7 +16507,7 @@
       <c r="BA295" s="3"/>
       <c r="BB295" s="3"/>
     </row>
-    <row r="296" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -16545,7 +16561,7 @@
       <c r="BA296" s="3"/>
       <c r="BB296" s="3"/>
     </row>
-    <row r="297" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -16599,7 +16615,7 @@
       <c r="BA297" s="3"/>
       <c r="BB297" s="3"/>
     </row>
-    <row r="298" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -16653,7 +16669,7 @@
       <c r="BA298" s="3"/>
       <c r="BB298" s="3"/>
     </row>
-    <row r="299" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -16707,7 +16723,7 @@
       <c r="BA299" s="3"/>
       <c r="BB299" s="3"/>
     </row>
-    <row r="300" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -16761,7 +16777,7 @@
       <c r="BA300" s="3"/>
       <c r="BB300" s="3"/>
     </row>
-    <row r="301" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -16815,7 +16831,7 @@
       <c r="BA301" s="3"/>
       <c r="BB301" s="3"/>
     </row>
-    <row r="302" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -16869,7 +16885,7 @@
       <c r="BA302" s="3"/>
       <c r="BB302" s="3"/>
     </row>
-    <row r="303" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -16923,7 +16939,7 @@
       <c r="BA303" s="3"/>
       <c r="BB303" s="3"/>
     </row>
-    <row r="304" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -16977,7 +16993,7 @@
       <c r="BA304" s="3"/>
       <c r="BB304" s="3"/>
     </row>
-    <row r="305" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -17031,7 +17047,7 @@
       <c r="BA305" s="3"/>
       <c r="BB305" s="3"/>
     </row>
-    <row r="306" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -17085,7 +17101,7 @@
       <c r="BA306" s="3"/>
       <c r="BB306" s="3"/>
     </row>
-    <row r="307" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -17139,7 +17155,7 @@
       <c r="BA307" s="3"/>
       <c r="BB307" s="3"/>
     </row>
-    <row r="308" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -17193,7 +17209,7 @@
       <c r="BA308" s="3"/>
       <c r="BB308" s="3"/>
     </row>
-    <row r="309" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -17247,7 +17263,7 @@
       <c r="BA309" s="3"/>
       <c r="BB309" s="3"/>
     </row>
-    <row r="310" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -17301,7 +17317,7 @@
       <c r="BA310" s="3"/>
       <c r="BB310" s="3"/>
     </row>
-    <row r="311" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -17355,7 +17371,7 @@
       <c r="BA311" s="3"/>
       <c r="BB311" s="3"/>
     </row>
-    <row r="312" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -17409,7 +17425,7 @@
       <c r="BA312" s="3"/>
       <c r="BB312" s="3"/>
     </row>
-    <row r="313" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -17463,7 +17479,7 @@
       <c r="BA313" s="3"/>
       <c r="BB313" s="3"/>
     </row>
-    <row r="314" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -17517,7 +17533,7 @@
       <c r="BA314" s="3"/>
       <c r="BB314" s="3"/>
     </row>
-    <row r="315" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -17571,7 +17587,7 @@
       <c r="BA315" s="3"/>
       <c r="BB315" s="3"/>
     </row>
-    <row r="316" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -17625,7 +17641,7 @@
       <c r="BA316" s="3"/>
       <c r="BB316" s="3"/>
     </row>
-    <row r="317" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -17679,7 +17695,7 @@
       <c r="BA317" s="3"/>
       <c r="BB317" s="3"/>
     </row>
-    <row r="318" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -17733,7 +17749,7 @@
       <c r="BA318" s="3"/>
       <c r="BB318" s="3"/>
     </row>
-    <row r="319" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -17787,7 +17803,7 @@
       <c r="BA319" s="3"/>
       <c r="BB319" s="3"/>
     </row>
-    <row r="320" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -17841,7 +17857,7 @@
       <c r="BA320" s="3"/>
       <c r="BB320" s="3"/>
     </row>
-    <row r="321" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -17895,7 +17911,7 @@
       <c r="BA321" s="3"/>
       <c r="BB321" s="3"/>
     </row>
-    <row r="322" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -17949,7 +17965,7 @@
       <c r="BA322" s="3"/>
       <c r="BB322" s="3"/>
     </row>
-    <row r="323" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -18003,7 +18019,7 @@
       <c r="BA323" s="3"/>
       <c r="BB323" s="3"/>
     </row>
-    <row r="324" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -18057,7 +18073,7 @@
       <c r="BA324" s="3"/>
       <c r="BB324" s="3"/>
     </row>
-    <row r="325" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -18111,7 +18127,7 @@
       <c r="BA325" s="3"/>
       <c r="BB325" s="3"/>
     </row>
-    <row r="326" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -18165,7 +18181,7 @@
       <c r="BA326" s="3"/>
       <c r="BB326" s="3"/>
     </row>
-    <row r="327" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -18219,7 +18235,7 @@
       <c r="BA327" s="3"/>
       <c r="BB327" s="3"/>
     </row>
-    <row r="328" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -18273,7 +18289,7 @@
       <c r="BA328" s="3"/>
       <c r="BB328" s="3"/>
     </row>
-    <row r="329" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -18327,7 +18343,7 @@
       <c r="BA329" s="3"/>
       <c r="BB329" s="3"/>
     </row>
-    <row r="330" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -18381,7 +18397,7 @@
       <c r="BA330" s="3"/>
       <c r="BB330" s="3"/>
     </row>
-    <row r="331" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -18435,7 +18451,7 @@
       <c r="BA331" s="3"/>
       <c r="BB331" s="3"/>
     </row>
-    <row r="332" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -18489,7 +18505,7 @@
       <c r="BA332" s="3"/>
       <c r="BB332" s="3"/>
     </row>
-    <row r="333" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -18543,7 +18559,7 @@
       <c r="BA333" s="3"/>
       <c r="BB333" s="3"/>
     </row>
-    <row r="334" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -18597,7 +18613,7 @@
       <c r="BA334" s="3"/>
       <c r="BB334" s="3"/>
     </row>
-    <row r="335" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -18651,7 +18667,7 @@
       <c r="BA335" s="3"/>
       <c r="BB335" s="3"/>
     </row>
-    <row r="336" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -18705,7 +18721,7 @@
       <c r="BA336" s="3"/>
       <c r="BB336" s="3"/>
     </row>
-    <row r="337" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -18759,7 +18775,7 @@
       <c r="BA337" s="3"/>
       <c r="BB337" s="3"/>
     </row>
-    <row r="338" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -18813,7 +18829,7 @@
       <c r="BA338" s="3"/>
       <c r="BB338" s="3"/>
     </row>
-    <row r="339" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -18867,7 +18883,7 @@
       <c r="BA339" s="3"/>
       <c r="BB339" s="3"/>
     </row>
-    <row r="340" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -18921,7 +18937,7 @@
       <c r="BA340" s="3"/>
       <c r="BB340" s="3"/>
     </row>
-    <row r="341" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -18975,7 +18991,7 @@
       <c r="BA341" s="3"/>
       <c r="BB341" s="3"/>
     </row>
-    <row r="342" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -19029,7 +19045,7 @@
       <c r="BA342" s="3"/>
       <c r="BB342" s="3"/>
     </row>
-    <row r="343" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -19083,7 +19099,7 @@
       <c r="BA343" s="3"/>
       <c r="BB343" s="3"/>
     </row>
-    <row r="344" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -19137,7 +19153,7 @@
       <c r="BA344" s="3"/>
       <c r="BB344" s="3"/>
     </row>
-    <row r="345" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -19191,7 +19207,7 @@
       <c r="BA345" s="3"/>
       <c r="BB345" s="3"/>
     </row>
-    <row r="346" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -19245,7 +19261,7 @@
       <c r="BA346" s="3"/>
       <c r="BB346" s="3"/>
     </row>
-    <row r="347" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -19299,7 +19315,7 @@
       <c r="BA347" s="3"/>
       <c r="BB347" s="3"/>
     </row>
-    <row r="348" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -19353,7 +19369,7 @@
       <c r="BA348" s="3"/>
       <c r="BB348" s="3"/>
     </row>
-    <row r="349" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -19407,7 +19423,7 @@
       <c r="BA349" s="3"/>
       <c r="BB349" s="3"/>
     </row>
-    <row r="350" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -19461,7 +19477,7 @@
       <c r="BA350" s="3"/>
       <c r="BB350" s="3"/>
     </row>
-    <row r="351" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -19515,7 +19531,7 @@
       <c r="BA351" s="3"/>
       <c r="BB351" s="3"/>
     </row>
-    <row r="352" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -19569,7 +19585,7 @@
       <c r="BA352" s="3"/>
       <c r="BB352" s="3"/>
     </row>
-    <row r="353" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -19623,7 +19639,7 @@
       <c r="BA353" s="3"/>
       <c r="BB353" s="3"/>
     </row>
-    <row r="354" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -19677,7 +19693,7 @@
       <c r="BA354" s="3"/>
       <c r="BB354" s="3"/>
     </row>
-    <row r="355" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -19731,7 +19747,7 @@
       <c r="BA355" s="3"/>
       <c r="BB355" s="3"/>
     </row>
-    <row r="356" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -19785,7 +19801,7 @@
       <c r="BA356" s="3"/>
       <c r="BB356" s="3"/>
     </row>
-    <row r="357" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -19839,7 +19855,7 @@
       <c r="BA357" s="3"/>
       <c r="BB357" s="3"/>
     </row>
-    <row r="358" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -19893,7 +19909,7 @@
       <c r="BA358" s="3"/>
       <c r="BB358" s="3"/>
     </row>
-    <row r="359" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -19947,7 +19963,7 @@
       <c r="BA359" s="3"/>
       <c r="BB359" s="3"/>
     </row>
-    <row r="360" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -20001,7 +20017,7 @@
       <c r="BA360" s="3"/>
       <c r="BB360" s="3"/>
     </row>
-    <row r="361" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -20055,7 +20071,7 @@
       <c r="BA361" s="3"/>
       <c r="BB361" s="3"/>
     </row>
-    <row r="362" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -20109,7 +20125,7 @@
       <c r="BA362" s="3"/>
       <c r="BB362" s="3"/>
     </row>
-    <row r="363" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -20163,7 +20179,7 @@
       <c r="BA363" s="3"/>
       <c r="BB363" s="3"/>
     </row>
-    <row r="364" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -20217,7 +20233,7 @@
       <c r="BA364" s="3"/>
       <c r="BB364" s="3"/>
     </row>
-    <row r="365" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -20271,7 +20287,7 @@
       <c r="BA365" s="3"/>
       <c r="BB365" s="3"/>
     </row>
-    <row r="366" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -20325,7 +20341,7 @@
       <c r="BA366" s="3"/>
       <c r="BB366" s="3"/>
     </row>
-    <row r="367" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -20379,7 +20395,7 @@
       <c r="BA367" s="3"/>
       <c r="BB367" s="3"/>
     </row>
-    <row r="368" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -20433,7 +20449,7 @@
       <c r="BA368" s="3"/>
       <c r="BB368" s="3"/>
     </row>
-    <row r="369" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -20487,7 +20503,7 @@
       <c r="BA369" s="3"/>
       <c r="BB369" s="3"/>
     </row>
-    <row r="370" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -20541,7 +20557,7 @@
       <c r="BA370" s="3"/>
       <c r="BB370" s="3"/>
     </row>
-    <row r="371" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -20595,7 +20611,7 @@
       <c r="BA371" s="3"/>
       <c r="BB371" s="3"/>
     </row>
-    <row r="372" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -20649,7 +20665,7 @@
       <c r="BA372" s="3"/>
       <c r="BB372" s="3"/>
     </row>
-    <row r="373" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -20703,7 +20719,7 @@
       <c r="BA373" s="3"/>
       <c r="BB373" s="3"/>
     </row>
-    <row r="374" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -20757,7 +20773,7 @@
       <c r="BA374" s="3"/>
       <c r="BB374" s="3"/>
     </row>
-    <row r="375" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -20811,7 +20827,7 @@
       <c r="BA375" s="3"/>
       <c r="BB375" s="3"/>
     </row>
-    <row r="376" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -20865,7 +20881,7 @@
       <c r="BA376" s="3"/>
       <c r="BB376" s="3"/>
     </row>
-    <row r="377" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -20919,7 +20935,7 @@
       <c r="BA377" s="3"/>
       <c r="BB377" s="3"/>
     </row>
-    <row r="378" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -20973,7 +20989,7 @@
       <c r="BA378" s="3"/>
       <c r="BB378" s="3"/>
     </row>
-    <row r="379" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -21027,7 +21043,7 @@
       <c r="BA379" s="3"/>
       <c r="BB379" s="3"/>
     </row>
-    <row r="380" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -21081,7 +21097,7 @@
       <c r="BA380" s="3"/>
       <c r="BB380" s="3"/>
     </row>
-    <row r="381" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -21135,7 +21151,7 @@
       <c r="BA381" s="3"/>
       <c r="BB381" s="3"/>
     </row>
-    <row r="382" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -21189,7 +21205,7 @@
       <c r="BA382" s="3"/>
       <c r="BB382" s="3"/>
     </row>
-    <row r="383" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -21243,7 +21259,7 @@
       <c r="BA383" s="3"/>
       <c r="BB383" s="3"/>
     </row>
-    <row r="384" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -21297,7 +21313,7 @@
       <c r="BA384" s="3"/>
       <c r="BB384" s="3"/>
     </row>
-    <row r="385" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -21351,7 +21367,7 @@
       <c r="BA385" s="3"/>
       <c r="BB385" s="3"/>
     </row>
-    <row r="386" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -21405,7 +21421,7 @@
       <c r="BA386" s="3"/>
       <c r="BB386" s="3"/>
     </row>
-    <row r="387" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -21459,7 +21475,7 @@
       <c r="BA387" s="3"/>
       <c r="BB387" s="3"/>
     </row>
-    <row r="388" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -21513,7 +21529,7 @@
       <c r="BA388" s="3"/>
       <c r="BB388" s="3"/>
     </row>
-    <row r="389" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -21567,7 +21583,7 @@
       <c r="BA389" s="3"/>
       <c r="BB389" s="3"/>
     </row>
-    <row r="390" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -21621,7 +21637,7 @@
       <c r="BA390" s="3"/>
       <c r="BB390" s="3"/>
     </row>
-    <row r="391" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -21675,7 +21691,7 @@
       <c r="BA391" s="3"/>
       <c r="BB391" s="3"/>
     </row>
-    <row r="392" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -21729,7 +21745,7 @@
       <c r="BA392" s="3"/>
       <c r="BB392" s="3"/>
     </row>
-    <row r="393" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -21783,7 +21799,7 @@
       <c r="BA393" s="3"/>
       <c r="BB393" s="3"/>
     </row>
-    <row r="394" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -21837,7 +21853,7 @@
       <c r="BA394" s="3"/>
       <c r="BB394" s="3"/>
     </row>
-    <row r="395" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -21891,7 +21907,7 @@
       <c r="BA395" s="3"/>
       <c r="BB395" s="3"/>
     </row>
-    <row r="396" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -21945,7 +21961,7 @@
       <c r="BA396" s="3"/>
       <c r="BB396" s="3"/>
     </row>
-    <row r="397" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -21999,7 +22015,7 @@
       <c r="BA397" s="3"/>
       <c r="BB397" s="3"/>
     </row>
-    <row r="398" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -22053,7 +22069,7 @@
       <c r="BA398" s="3"/>
       <c r="BB398" s="3"/>
     </row>
-    <row r="399" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -22107,7 +22123,7 @@
       <c r="BA399" s="3"/>
       <c r="BB399" s="3"/>
     </row>
-    <row r="400" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -22161,7 +22177,7 @@
       <c r="BA400" s="3"/>
       <c r="BB400" s="3"/>
     </row>
-    <row r="401" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -22215,7 +22231,7 @@
       <c r="BA401" s="3"/>
       <c r="BB401" s="3"/>
     </row>
-    <row r="402" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -22269,7 +22285,7 @@
       <c r="BA402" s="3"/>
       <c r="BB402" s="3"/>
     </row>
-    <row r="403" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -22323,7 +22339,7 @@
       <c r="BA403" s="3"/>
       <c r="BB403" s="3"/>
     </row>
-    <row r="404" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -22377,7 +22393,7 @@
       <c r="BA404" s="3"/>
       <c r="BB404" s="3"/>
     </row>
-    <row r="405" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -22431,7 +22447,7 @@
       <c r="BA405" s="3"/>
       <c r="BB405" s="3"/>
     </row>
-    <row r="406" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -22485,7 +22501,7 @@
       <c r="BA406" s="3"/>
       <c r="BB406" s="3"/>
     </row>
-    <row r="407" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -22539,7 +22555,7 @@
       <c r="BA407" s="3"/>
       <c r="BB407" s="3"/>
     </row>
-    <row r="408" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -22593,7 +22609,7 @@
       <c r="BA408" s="3"/>
       <c r="BB408" s="3"/>
     </row>
-    <row r="409" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -22647,7 +22663,7 @@
       <c r="BA409" s="3"/>
       <c r="BB409" s="3"/>
     </row>
-    <row r="410" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -22701,7 +22717,7 @@
       <c r="BA410" s="3"/>
       <c r="BB410" s="3"/>
     </row>
-    <row r="411" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -22755,7 +22771,7 @@
       <c r="BA411" s="3"/>
       <c r="BB411" s="3"/>
     </row>
-    <row r="412" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -22809,7 +22825,7 @@
       <c r="BA412" s="3"/>
       <c r="BB412" s="3"/>
     </row>
-    <row r="413" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -22863,7 +22879,7 @@
       <c r="BA413" s="3"/>
       <c r="BB413" s="3"/>
     </row>
-    <row r="414" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -22917,7 +22933,7 @@
       <c r="BA414" s="3"/>
       <c r="BB414" s="3"/>
     </row>
-    <row r="415" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -22971,7 +22987,7 @@
       <c r="BA415" s="3"/>
       <c r="BB415" s="3"/>
     </row>
-    <row r="416" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -23025,7 +23041,7 @@
       <c r="BA416" s="3"/>
       <c r="BB416" s="3"/>
     </row>
-    <row r="417" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -23079,7 +23095,7 @@
       <c r="BA417" s="3"/>
       <c r="BB417" s="3"/>
     </row>
-    <row r="418" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -23133,7 +23149,7 @@
       <c r="BA418" s="3"/>
       <c r="BB418" s="3"/>
     </row>
-    <row r="419" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -23187,7 +23203,7 @@
       <c r="BA419" s="3"/>
       <c r="BB419" s="3"/>
     </row>
-    <row r="420" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -23241,7 +23257,7 @@
       <c r="BA420" s="3"/>
       <c r="BB420" s="3"/>
     </row>
-    <row r="421" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -23295,7 +23311,7 @@
       <c r="BA421" s="3"/>
       <c r="BB421" s="3"/>
     </row>
-    <row r="422" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -23349,7 +23365,7 @@
       <c r="BA422" s="3"/>
       <c r="BB422" s="3"/>
     </row>
-    <row r="423" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -23403,7 +23419,7 @@
       <c r="BA423" s="3"/>
       <c r="BB423" s="3"/>
     </row>
-    <row r="424" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -23457,7 +23473,7 @@
       <c r="BA424" s="3"/>
       <c r="BB424" s="3"/>
     </row>
-    <row r="425" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -23511,7 +23527,7 @@
       <c r="BA425" s="3"/>
       <c r="BB425" s="3"/>
     </row>
-    <row r="426" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -23565,7 +23581,7 @@
       <c r="BA426" s="3"/>
       <c r="BB426" s="3"/>
     </row>
-    <row r="427" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -23619,7 +23635,7 @@
       <c r="BA427" s="3"/>
       <c r="BB427" s="3"/>
     </row>
-    <row r="428" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -23673,7 +23689,7 @@
       <c r="BA428" s="3"/>
       <c r="BB428" s="3"/>
     </row>
-    <row r="429" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -23727,7 +23743,7 @@
       <c r="BA429" s="3"/>
       <c r="BB429" s="3"/>
     </row>
-    <row r="430" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -23781,7 +23797,7 @@
       <c r="BA430" s="3"/>
       <c r="BB430" s="3"/>
     </row>
-    <row r="431" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -23835,7 +23851,7 @@
       <c r="BA431" s="3"/>
       <c r="BB431" s="3"/>
     </row>
-    <row r="432" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -23889,7 +23905,7 @@
       <c r="BA432" s="3"/>
       <c r="BB432" s="3"/>
     </row>
-    <row r="433" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -23943,7 +23959,7 @@
       <c r="BA433" s="3"/>
       <c r="BB433" s="3"/>
     </row>
-    <row r="434" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -23997,7 +24013,7 @@
       <c r="BA434" s="3"/>
       <c r="BB434" s="3"/>
     </row>
-    <row r="435" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -24051,7 +24067,7 @@
       <c r="BA435" s="3"/>
       <c r="BB435" s="3"/>
     </row>
-    <row r="436" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -24105,7 +24121,7 @@
       <c r="BA436" s="3"/>
       <c r="BB436" s="3"/>
     </row>
-    <row r="437" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -24159,7 +24175,7 @@
       <c r="BA437" s="3"/>
       <c r="BB437" s="3"/>
     </row>
-    <row r="438" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -24213,7 +24229,7 @@
       <c r="BA438" s="3"/>
       <c r="BB438" s="3"/>
     </row>
-    <row r="439" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -24267,7 +24283,7 @@
       <c r="BA439" s="3"/>
       <c r="BB439" s="3"/>
     </row>
-    <row r="440" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -24321,7 +24337,7 @@
       <c r="BA440" s="3"/>
       <c r="BB440" s="3"/>
     </row>
-    <row r="441" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -24375,7 +24391,7 @@
       <c r="BA441" s="3"/>
       <c r="BB441" s="3"/>
     </row>
-    <row r="442" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -24429,7 +24445,7 @@
       <c r="BA442" s="3"/>
       <c r="BB442" s="3"/>
     </row>
-    <row r="443" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -24483,7 +24499,7 @@
       <c r="BA443" s="3"/>
       <c r="BB443" s="3"/>
     </row>
-    <row r="444" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -24537,7 +24553,7 @@
       <c r="BA444" s="3"/>
       <c r="BB444" s="3"/>
     </row>
-    <row r="445" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -24591,7 +24607,7 @@
       <c r="BA445" s="3"/>
       <c r="BB445" s="3"/>
     </row>
-    <row r="446" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -24645,7 +24661,7 @@
       <c r="BA446" s="3"/>
       <c r="BB446" s="3"/>
     </row>
-    <row r="447" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -24699,7 +24715,7 @@
       <c r="BA447" s="3"/>
       <c r="BB447" s="3"/>
     </row>
-    <row r="448" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -24753,7 +24769,7 @@
       <c r="BA448" s="3"/>
       <c r="BB448" s="3"/>
     </row>
-    <row r="449" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -24807,7 +24823,7 @@
       <c r="BA449" s="3"/>
       <c r="BB449" s="3"/>
     </row>
-    <row r="450" spans="3:54" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:54" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
